--- a/Week04/w4-1.xlsx
+++ b/Week04/w4-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/マイドライブ/Classroom/2022 2nd Semester/IntroStats/GitHub/IntroStats/Week04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohkawano/Library/CloudStorage/GoogleDrive-ykawano@reitaku-u.ac.jp/My Drive/Classroom/2023 1st Semester/23-1-Reitaku-Stats/Week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE19F9-32F2-6B40-ADA3-AE4F3F3DB5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F14ABE-4036-0541-994E-DF1D6B2CE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,43 +16,67 @@
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">シート1!$A$6:$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">シート1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">シート1!$F$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">シート1!$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">シート1!$G$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">シート1!$A$6:$A$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">シート1!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">シート1!$B$6:$B$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">シート1!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">シート1!$C$6:$C$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">シート1!$D$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">シート1!$D$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">シート1!$B$6:$B$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">シート1!$E$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">シート1!$E$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">シート1!$F$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">シート1!$F$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">シート1!$G$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">シート1!$G$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">シート1!$A$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">シート1!$A$3</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">シート1!$A$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">シート1!$A$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">シート1!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">シート1!$A$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">シート1!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">シート1!$B$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">シート1!$B$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">シート1!$B$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">シート1!$B$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">シート1!$B$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">シート1!$C$6:$C$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">シート1!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">シート1!$D$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">シート1!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">シート1!$E$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">シート1!$F$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">シート1!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">シート1!$B$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">シート1!$C$7:$H$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">シート1!$B$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">シート1!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">シート1!$C$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">シート1!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">シート1!$D$2</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">シート1!$D$3:$D$7</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">シート1!$E$2</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">シート1!$E$3:$E$7</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">シート1!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">シート1!$B$6</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">シート1!$F$3:$F$7</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">シート1!$G$2</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">シート1!$G$3:$G$7</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">シート1!$H$2</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">シート1!$H$3:$H$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">シート1!$B$7</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">シート1!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">シート1!$C$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">シート1!$C$2:$H$2</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">シート1!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">シート1!$D$2</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">シート1!$D$3:$D$7</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">シート1!$E$2</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">シート1!$E$3:$E$7</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">シート1!$F$2</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">シート1!$F$3:$F$7</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">シート1!$G$2</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">シート1!$G$3:$G$7</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">シート1!$H$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">シート1!$C$3:$H$3</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">シート1!$H$3:$H$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">シート1!$C$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">シート1!$C$5:$H$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">シート1!$C$6:$H$6</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">シート1!$B$3</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">シート1!$B$4</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">シート1!$B$5</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">シート1!$B$6</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">シート1!$B$7</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">シート1!$C$2:$H$2</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">シート1!$C$3:$H$3</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">シート1!$C$4:$H$4</definedName>
+    <definedName name="_xlchart.v2.19" hidden="1">シート1!$C$5:$H$5</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">シート1!$C$6:$H$6</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">シート1!$C$7:$H$7</definedName>
+    <definedName name="_xlchart.v2.35" hidden="1">シート1!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v2.36" hidden="1">シート1!$C$2</definedName>
+    <definedName name="_xlchart.v2.37" hidden="1">シート1!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v2.38" hidden="1">シート1!$D$2</definedName>
+    <definedName name="_xlchart.v2.39" hidden="1">シート1!$D$3:$D$7</definedName>
+    <definedName name="_xlchart.v2.40" hidden="1">シート1!$E$2</definedName>
+    <definedName name="_xlchart.v2.41" hidden="1">シート1!$E$3:$E$7</definedName>
+    <definedName name="_xlchart.v2.42" hidden="1">シート1!$F$2</definedName>
+    <definedName name="_xlchart.v2.43" hidden="1">シート1!$F$3:$F$7</definedName>
+    <definedName name="_xlchart.v2.44" hidden="1">シート1!$G$2</definedName>
+    <definedName name="_xlchart.v2.45" hidden="1">シート1!$G$3:$G$7</definedName>
+    <definedName name="_xlchart.v2.46" hidden="1">シート1!$H$2</definedName>
+    <definedName name="_xlchart.v2.47" hidden="1">シート1!$H$3:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,12 +146,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,21 +170,214 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -168,15 +387,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,161 +626,156 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="28" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="8">
         <v>172</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="8">
         <v>130</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="8">
         <v>31</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="8">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="8">
         <v>22</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="11">
         <v>131</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="11">
         <v>47</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="11">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="11">
         <v>21</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="11">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="11">
         <v>207</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="11">
         <v>37</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="11">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="11">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G5" s="11">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="11">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="11">
         <v>37</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="11">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="11">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="14">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="14">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="14">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
